--- a/00_rawdata/VijayDriveSDNWA/ECCC_Hydrolab_1993-1999.xlsx
+++ b/00_rawdata/VijayDriveSDNWA/ECCC_Hydrolab_1993-1999.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessi\OneDrive\Desktop\Jess\LDP Internship\LDP-Internship\00_rawdata\VijayDriveSDNWA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{177B461B-E023-4682-81C2-D7E732F5BA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286BAF3B-FF01-4CAA-BCE3-49D7CC6F932D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{6B13A135-F321-4E30-A1F7-5630A0BB5B6A}"/>
   </bookViews>
@@ -18,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ECCC_Hydrolab_1993-1999'!$A$1:$K$1349</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="15">
   <si>
     <t>Pond</t>
   </si>
@@ -68,9 +81,6 @@
   </si>
   <si>
     <t>SPC_uS.cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -554,11 +564,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -934,10 +943,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC5F297-ADA2-4AE9-8FCA-FECBF10AEB69}">
-  <dimension ref="A1:M1349"/>
+  <dimension ref="A1:K1349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1098" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1109" sqref="K1109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,7 +955,7 @@
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -980,7 +990,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1015,7 +1025,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1029,7 +1039,7 @@
         <v>11.2</v>
       </c>
       <c r="F3">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
         <v>2.02</v>
@@ -1047,7 +1057,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1061,7 +1071,7 @@
         <v>11.4</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>2.02</v>
@@ -1079,7 +1089,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1096,7 +1106,7 @@
         <v>9.4499999999999993</v>
       </c>
       <c r="F5">
-        <v>-1.6</v>
+        <v>1.6</v>
       </c>
       <c r="G5">
         <v>2.1</v>
@@ -1114,7 +1124,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>25</v>
       </c>
@@ -1149,7 +1159,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>25</v>
       </c>
@@ -1163,7 +1173,7 @@
         <v>7.03</v>
       </c>
       <c r="F7">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G7">
         <v>1.22</v>
@@ -1181,7 +1191,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>25</v>
       </c>
@@ -1198,7 +1208,7 @@
         <v>6.91</v>
       </c>
       <c r="F8">
-        <v>-0.4</v>
+        <v>0.4</v>
       </c>
       <c r="G8">
         <v>1.49</v>
@@ -1215,11 +1225,8 @@
       <c r="K8">
         <v>0.8</v>
       </c>
-      <c r="M8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>50</v>
       </c>
@@ -1236,7 +1243,7 @@
         <v>3.42</v>
       </c>
       <c r="F9">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G9">
         <v>3.22</v>
@@ -1254,7 +1261,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>65</v>
       </c>
@@ -1289,7 +1296,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>65</v>
       </c>
@@ -1303,7 +1310,7 @@
         <v>7.19</v>
       </c>
       <c r="F11">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="G11">
         <v>3.35</v>
@@ -1321,7 +1328,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>65</v>
       </c>
@@ -1338,7 +1345,7 @@
         <v>7.23</v>
       </c>
       <c r="F12">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
         <v>3.35</v>
@@ -1356,7 +1363,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>66</v>
       </c>
@@ -1391,7 +1398,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4857</v>
       </c>
@@ -1426,7 +1433,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4857</v>
       </c>
@@ -1440,7 +1447,7 @@
         <v>8.58</v>
       </c>
       <c r="F15">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="G15">
         <v>0.59</v>
@@ -1458,7 +1465,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4857</v>
       </c>
@@ -1475,7 +1482,7 @@
         <v>8.5299999999999994</v>
       </c>
       <c r="F16">
-        <v>-0.7</v>
+        <v>0.7</v>
       </c>
       <c r="G16">
         <v>0.59</v>
@@ -1542,7 +1549,7 @@
         <v>8.1</v>
       </c>
       <c r="F18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>0.79</v>
@@ -1574,7 +1581,7 @@
         <v>8.01</v>
       </c>
       <c r="F19">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="G19">
         <v>0.79</v>
@@ -1609,7 +1616,7 @@
         <v>4.5</v>
       </c>
       <c r="F20">
-        <v>-2.7</v>
+        <v>2.7</v>
       </c>
       <c r="G20">
         <v>0.8</v>
@@ -4880,10 +4887,10 @@
         <v>98</v>
       </c>
       <c r="J118">
+        <v>182.3</v>
+      </c>
+      <c r="K118">
         <v>1.1000000000000001</v>
-      </c>
-      <c r="K118">
-        <v>182.3</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -4912,10 +4919,10 @@
         <v>176</v>
       </c>
       <c r="J119">
+        <v>186</v>
+      </c>
+      <c r="K119">
         <v>1.1000000000000001</v>
-      </c>
-      <c r="K119">
-        <v>186</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -4944,10 +4951,10 @@
         <v>158</v>
       </c>
       <c r="J120">
+        <v>185.2</v>
+      </c>
+      <c r="K120">
         <v>1.1000000000000001</v>
-      </c>
-      <c r="K120">
-        <v>185.2</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -5116,10 +5123,10 @@
         <v>163</v>
       </c>
       <c r="J125">
+        <v>98.6</v>
+      </c>
+      <c r="K125">
         <v>1.8</v>
-      </c>
-      <c r="K125">
-        <v>98.6</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -5148,10 +5155,10 @@
         <v>173</v>
       </c>
       <c r="J126">
+        <v>74.2</v>
+      </c>
+      <c r="K126">
         <v>1.8</v>
-      </c>
-      <c r="K126">
-        <v>74.2</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -5180,10 +5187,10 @@
         <v>147</v>
       </c>
       <c r="J127">
+        <v>65.5</v>
+      </c>
+      <c r="K127">
         <v>1.9</v>
-      </c>
-      <c r="K127">
-        <v>65.5</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -5244,10 +5251,10 @@
         <v>217</v>
       </c>
       <c r="J129">
+        <v>127.9</v>
+      </c>
+      <c r="K129">
         <v>2.8</v>
-      </c>
-      <c r="K129">
-        <v>127.9</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -5276,10 +5283,10 @@
         <v>107</v>
       </c>
       <c r="J130">
+        <v>126.5</v>
+      </c>
+      <c r="K130">
         <v>3.3</v>
-      </c>
-      <c r="K130">
-        <v>126.5</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -5378,10 +5385,10 @@
         <v>209</v>
       </c>
       <c r="J133">
+        <v>82.3</v>
+      </c>
+      <c r="K133">
         <v>2.9</v>
-      </c>
-      <c r="K133">
-        <v>82.3</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -5413,10 +5420,10 @@
         <v>249</v>
       </c>
       <c r="J134">
+        <v>127.8</v>
+      </c>
+      <c r="K134">
         <v>0.4</v>
-      </c>
-      <c r="K134">
-        <v>127.8</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -5445,10 +5452,10 @@
         <v>245</v>
       </c>
       <c r="J135">
+        <v>127.2</v>
+      </c>
+      <c r="K135">
         <v>0.4</v>
-      </c>
-      <c r="K135">
-        <v>127.2</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -5477,10 +5484,10 @@
         <v>186</v>
       </c>
       <c r="J136">
+        <v>117.4</v>
+      </c>
+      <c r="K136">
         <v>0.4</v>
-      </c>
-      <c r="K136">
-        <v>117.4</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -5512,10 +5519,10 @@
         <v>256</v>
       </c>
       <c r="J137">
+        <v>182.2</v>
+      </c>
+      <c r="K137">
         <v>0.4</v>
-      </c>
-      <c r="K137">
-        <v>182.2</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -5544,10 +5551,10 @@
         <v>260</v>
       </c>
       <c r="J138">
+        <v>190.1</v>
+      </c>
+      <c r="K138">
         <v>0.4</v>
-      </c>
-      <c r="K138">
-        <v>190.1</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -5576,10 +5583,10 @@
         <v>272</v>
       </c>
       <c r="J139">
+        <v>177.3</v>
+      </c>
+      <c r="K139">
         <v>0.4</v>
-      </c>
-      <c r="K139">
-        <v>177.3</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -5608,10 +5615,10 @@
         <v>282</v>
       </c>
       <c r="J140">
+        <v>112.3</v>
+      </c>
+      <c r="K140">
         <v>0.4</v>
-      </c>
-      <c r="K140">
-        <v>112.3</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
@@ -5640,10 +5647,10 @@
         <v>279</v>
       </c>
       <c r="J141">
+        <v>123.8</v>
+      </c>
+      <c r="K141">
         <v>0.4</v>
-      </c>
-      <c r="K141">
-        <v>123.8</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -5672,10 +5679,10 @@
         <v>344</v>
       </c>
       <c r="J142">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="K142">
         <v>0.4</v>
-      </c>
-      <c r="K142">
-        <v>33.200000000000003</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -11279,7 +11286,7 @@
         <v>8.2200000000000006</v>
       </c>
       <c r="F307">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="G307">
         <v>0.99299999999999999</v>
@@ -11384,7 +11391,7 @@
         <v>7.5</v>
       </c>
       <c r="F310">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="G310">
         <v>1.63</v>
@@ -11489,7 +11496,7 @@
         <v>8.11</v>
       </c>
       <c r="F313">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="G313">
         <v>1.6559999999999999</v>
@@ -11524,7 +11531,7 @@
         <v>7.58</v>
       </c>
       <c r="F314">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="G314">
         <v>1.64</v>
@@ -11734,7 +11741,7 @@
         <v>9.2200000000000006</v>
       </c>
       <c r="F320">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="G320">
         <v>0.34499999999999997</v>
@@ -11804,7 +11811,7 @@
         <v>9.91</v>
       </c>
       <c r="F322">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="G322">
         <v>2.71</v>
@@ -11874,7 +11881,7 @@
         <v>8.84</v>
       </c>
       <c r="F324">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G324">
         <v>26.1</v>
@@ -11909,7 +11916,7 @@
         <v>8.84</v>
       </c>
       <c r="F325">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G325">
         <v>25.8</v>
@@ -11944,7 +11951,7 @@
         <v>10.64</v>
       </c>
       <c r="F326">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="G326">
         <v>3.25</v>
@@ -12119,7 +12126,7 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="F331">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G331">
         <v>0.32900000000000001</v>
@@ -12189,7 +12196,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="F333">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="G333">
         <v>0.76</v>
@@ -12294,7 +12301,7 @@
         <v>11.43</v>
       </c>
       <c r="F336">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="G336">
         <v>0.99099999999999999</v>
@@ -12434,7 +12441,7 @@
         <v>8.67</v>
       </c>
       <c r="F340">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G340">
         <v>1.075</v>
@@ -12644,7 +12651,7 @@
         <v>8.36</v>
       </c>
       <c r="F346">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G346">
         <v>1.67</v>
@@ -13169,7 +13176,7 @@
         <v>11.41</v>
       </c>
       <c r="F361">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G361">
         <v>0.76800000000000002</v>
@@ -14254,7 +14261,7 @@
         <v>13</v>
       </c>
       <c r="F392">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G392">
         <v>1.55</v>
@@ -14359,7 +14366,7 @@
         <v>11.99</v>
       </c>
       <c r="F395">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G395">
         <v>4.43</v>
@@ -14429,7 +14436,7 @@
         <v>13.53</v>
       </c>
       <c r="F397">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G397">
         <v>0.79100000000000004</v>
@@ -14499,7 +14506,7 @@
         <v>9.9700000000000006</v>
       </c>
       <c r="F399">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G399">
         <v>1.86</v>
@@ -14604,7 +14611,7 @@
         <v>9.8800000000000008</v>
       </c>
       <c r="F402">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G402">
         <v>1.89</v>
@@ -14709,7 +14716,7 @@
         <v>9.34</v>
       </c>
       <c r="F405">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G405">
         <v>1.86</v>
@@ -14744,7 +14751,7 @@
         <v>7.69</v>
       </c>
       <c r="F406">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G406">
         <v>0.84</v>
@@ -14814,7 +14821,7 @@
         <v>6.38</v>
       </c>
       <c r="F408">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G408">
         <v>0.46400000000000002</v>
@@ -14884,7 +14891,7 @@
         <v>5.75</v>
       </c>
       <c r="F410">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G410">
         <v>0.373</v>
@@ -14954,7 +14961,7 @@
         <v>10.25</v>
       </c>
       <c r="F412">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G412">
         <v>2.9</v>
@@ -15059,7 +15066,7 @@
         <v>10.32</v>
       </c>
       <c r="F415">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G415">
         <v>22.6</v>
@@ -15129,7 +15136,7 @@
         <v>8.7799999999999994</v>
       </c>
       <c r="F417">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G417">
         <v>3.71</v>
@@ -15199,7 +15206,7 @@
         <v>7.78</v>
       </c>
       <c r="F419">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G419">
         <v>0.41699999999999998</v>
@@ -15269,7 +15276,7 @@
         <v>7.97</v>
       </c>
       <c r="F421">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G421">
         <v>9.99</v>
@@ -15339,7 +15346,7 @@
         <v>2.98</v>
       </c>
       <c r="F423">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G423">
         <v>0.38900000000000001</v>
@@ -15409,7 +15416,7 @@
         <v>1.73</v>
       </c>
       <c r="F425">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G425">
         <v>1.109</v>
@@ -15479,7 +15486,7 @@
         <v>5.08</v>
       </c>
       <c r="F427">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G427">
         <v>1.63</v>
@@ -15584,7 +15591,7 @@
         <v>8.5500000000000007</v>
       </c>
       <c r="F430">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G430">
         <v>5.14</v>
@@ -15654,7 +15661,7 @@
         <v>12.08</v>
       </c>
       <c r="F432">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G432">
         <v>0.78800000000000003</v>
@@ -15759,7 +15766,7 @@
         <v>8.81</v>
       </c>
       <c r="F435">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G435">
         <v>1.9</v>
@@ -15864,7 +15871,7 @@
         <v>10.96</v>
       </c>
       <c r="F438">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G438">
         <v>1.89</v>
@@ -16844,19 +16851,13 @@
         <v>5.53</v>
       </c>
       <c r="F466">
-        <v>12.2</v>
+        <v>0.9</v>
       </c>
       <c r="G466">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="K466">
         <v>0.4</v>
-      </c>
-      <c r="H466">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="I466">
-        <v>0.9</v>
-      </c>
-      <c r="K466">
-        <v>61.1</v>
       </c>
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.25">
@@ -16876,7 +16877,7 @@
         <v>3.14</v>
       </c>
       <c r="F467">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G467">
         <v>1.69</v>
@@ -16981,7 +16982,7 @@
         <v>5.58</v>
       </c>
       <c r="F470">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G470">
         <v>0.48699999999999999</v>
@@ -17051,7 +17052,7 @@
         <v>9.52</v>
       </c>
       <c r="F472">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G472">
         <v>4.8499999999999996</v>
@@ -17086,7 +17087,7 @@
         <v>8.9600000000000009</v>
       </c>
       <c r="F473">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G473">
         <v>4.8499999999999996</v>
@@ -17121,7 +17122,7 @@
         <v>6.18</v>
       </c>
       <c r="F474">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="G474">
         <v>0.34799999999999998</v>
@@ -17191,7 +17192,7 @@
         <v>9.73</v>
       </c>
       <c r="F476">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G476">
         <v>0.77</v>
@@ -17261,7 +17262,7 @@
         <v>7.81</v>
       </c>
       <c r="F478">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G478">
         <v>1.92</v>
@@ -17296,7 +17297,7 @@
         <v>7.67</v>
       </c>
       <c r="F479">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="G479">
         <v>1.91</v>
@@ -17401,7 +17402,7 @@
         <v>7.32</v>
       </c>
       <c r="F482">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G482">
         <v>1.91</v>
@@ -17436,7 +17437,7 @@
         <v>7.5</v>
       </c>
       <c r="F483">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G483">
         <v>1.87</v>
@@ -20162,9 +20163,6 @@
       <c r="D561">
         <v>21.2</v>
       </c>
-      <c r="E561">
-        <v>99999</v>
-      </c>
       <c r="F561">
         <v>0.6</v>
       </c>
@@ -20176,9 +20174,6 @@
       </c>
       <c r="I561">
         <v>231</v>
-      </c>
-      <c r="J561">
-        <v>99999</v>
       </c>
       <c r="K561">
         <v>0.5</v>
@@ -20197,9 +20192,6 @@
       <c r="D562">
         <v>21.31</v>
       </c>
-      <c r="E562">
-        <v>99999</v>
-      </c>
       <c r="F562">
         <v>0.2</v>
       </c>
@@ -20211,9 +20203,6 @@
       </c>
       <c r="I562">
         <v>230</v>
-      </c>
-      <c r="J562">
-        <v>99999</v>
       </c>
       <c r="K562">
         <v>0.5</v>
@@ -22651,7 +22640,7 @@
         <v>7</v>
       </c>
       <c r="F632">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G632">
         <v>1.71</v>
@@ -22756,7 +22745,7 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="F635">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G635">
         <v>3.04</v>
@@ -22896,7 +22885,7 @@
         <v>8.36</v>
       </c>
       <c r="F639">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G639">
         <v>0.94599999999999995</v>
@@ -22966,7 +22955,7 @@
         <v>7.66</v>
       </c>
       <c r="F641">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G641">
         <v>1.96</v>
@@ -23036,7 +23025,7 @@
         <v>4.47</v>
       </c>
       <c r="F643">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G643">
         <v>0.22</v>
@@ -24891,7 +24880,7 @@
         <v>11.94</v>
       </c>
       <c r="F696">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G696">
         <v>40.5</v>
@@ -25307,9 +25296,6 @@
       <c r="D708">
         <v>21.02</v>
       </c>
-      <c r="E708">
-        <v>99999</v>
-      </c>
       <c r="F708">
         <v>0</v>
       </c>
@@ -25321,9 +25307,6 @@
       </c>
       <c r="I708">
         <v>84</v>
-      </c>
-      <c r="J708">
-        <v>99999</v>
       </c>
       <c r="K708">
         <v>1.1000000000000001</v>
@@ -25556,7 +25539,7 @@
         <v>7</v>
       </c>
       <c r="F715">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G715">
         <v>1.071</v>
@@ -26501,7 +26484,7 @@
         <v>8.6</v>
       </c>
       <c r="F742">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G742">
         <v>41</v>
@@ -33714,7 +33697,7 @@
         <v>0</v>
       </c>
       <c r="G948">
-        <v>165</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="H948">
         <v>7.81</v>
@@ -33749,7 +33732,7 @@
         <v>0.6</v>
       </c>
       <c r="G949">
-        <v>168</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="H949">
         <v>7.75</v>
@@ -44479,8 +44462,8 @@
       <c r="B1267" s="1">
         <v>36327</v>
       </c>
-      <c r="C1267" s="3">
-        <v>3.8521759259259261</v>
+      <c r="C1267" s="2">
+        <v>0.39384259259259258</v>
       </c>
       <c r="D1267">
         <v>19.39</v>

--- a/00_rawdata/VijayDriveSDNWA/ECCC_Hydrolab_1993-1999.xlsx
+++ b/00_rawdata/VijayDriveSDNWA/ECCC_Hydrolab_1993-1999.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessi\OneDrive\Desktop\Jess\LDP Internship\LDP-Internship\00_rawdata\VijayDriveSDNWA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286BAF3B-FF01-4CAA-BCE3-49D7CC6F932D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77891F42-69DB-4F36-B272-A91FC238BF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{6B13A135-F321-4E30-A1F7-5630A0BB5B6A}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>Temp_degC</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
   </si>
   <si>
     <t>Depth_m</t>
-  </si>
-  <si>
-    <t>pH</t>
   </si>
   <si>
     <t>Redox_mV</t>
@@ -81,6 +75,12 @@
   </si>
   <si>
     <t>SPC_uS.cm</t>
+  </si>
+  <si>
+    <t>pH_hydro</t>
+  </si>
+  <si>
+    <t>Time_hydro</t>
   </si>
 </sst>
 </file>
@@ -946,8 +946,8 @@
   <dimension ref="A1:K1349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1098" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1109" sqref="K1109"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,31 +963,31 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1502,7 +1502,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1">
         <v>34109</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1">
         <v>34109</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B19" s="1">
         <v>34109</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B20" s="1">
         <v>34109</v>
@@ -2536,7 +2536,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B48" s="1">
         <v>34116</v>
@@ -2571,7 +2571,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B49" s="1">
         <v>34116</v>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B50" s="1">
         <v>34116</v>
@@ -2635,7 +2635,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B51" s="1">
         <v>34116</v>
@@ -2667,7 +2667,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B52" s="1">
         <v>34116</v>
@@ -2699,7 +2699,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B53" s="1">
         <v>34116</v>
@@ -3322,7 +3322,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B72" s="1">
         <v>34129</v>
@@ -3357,7 +3357,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B73" s="1">
         <v>34129</v>
@@ -3389,7 +3389,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B74" s="1">
         <v>34129</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B75" s="1">
         <v>34129</v>
@@ -3453,7 +3453,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B76" s="1">
         <v>34129</v>
@@ -3485,7 +3485,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B77" s="1">
         <v>34129</v>
@@ -4510,7 +4510,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B108" s="1">
         <v>34145</v>
@@ -4545,7 +4545,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B109" s="1">
         <v>34145</v>
@@ -4580,7 +4580,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B110" s="1">
         <v>34145</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B111" s="1">
         <v>34145</v>
@@ -4650,7 +4650,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B112" s="1">
         <v>34145</v>
@@ -4685,7 +4685,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B113" s="1">
         <v>34145</v>
@@ -4720,7 +4720,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B114" s="1">
         <v>34145</v>
@@ -4755,7 +4755,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B115" s="1">
         <v>34145</v>
@@ -4790,7 +4790,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B116" s="1">
         <v>34145</v>
@@ -4825,7 +4825,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B117" s="1">
         <v>34145</v>
@@ -5492,7 +5492,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B137" s="1">
         <v>34158</v>
@@ -5527,7 +5527,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B138" s="1">
         <v>34158</v>
@@ -5559,7 +5559,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B139" s="1">
         <v>34158</v>
@@ -5591,7 +5591,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B140" s="1">
         <v>34158</v>
@@ -5623,7 +5623,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B141" s="1">
         <v>34158</v>
@@ -5655,7 +5655,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B142" s="1">
         <v>34158</v>
@@ -5920,7 +5920,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B150" s="1">
         <v>34171</v>
@@ -5955,7 +5955,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B151" s="1">
         <v>34171</v>
@@ -5987,7 +5987,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B152" s="1">
         <v>34171</v>
@@ -6019,7 +6019,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B153" s="1">
         <v>34171</v>
@@ -6051,7 +6051,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B154" s="1">
         <v>34171</v>
@@ -6083,7 +6083,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B155" s="1">
         <v>34171</v>
@@ -7248,7 +7248,7 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B190" s="1">
         <v>34185</v>
@@ -7283,7 +7283,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B191" s="1">
         <v>34185</v>
@@ -7315,7 +7315,7 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B192" s="1">
         <v>34185</v>
@@ -7347,7 +7347,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B193" s="1">
         <v>34185</v>
@@ -7379,7 +7379,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B194" s="1">
         <v>34185</v>
@@ -7411,7 +7411,7 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B195" s="1">
         <v>34185</v>
@@ -7443,7 +7443,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B196" s="1">
         <v>34185</v>
@@ -7475,7 +7475,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B197" s="1">
         <v>34185</v>
@@ -7507,7 +7507,7 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B198" s="1">
         <v>34185</v>
@@ -7539,7 +7539,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B199" s="1">
         <v>34185</v>
@@ -8203,7 +8203,7 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B219" s="1">
         <v>34200</v>
@@ -8238,7 +8238,7 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B220" s="1">
         <v>34200</v>
@@ -8273,7 +8273,7 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B221" s="1">
         <v>34200</v>
@@ -8308,7 +8308,7 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B222" s="1">
         <v>34200</v>
@@ -8343,7 +8343,7 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B223" s="1">
         <v>34200</v>
@@ -8378,7 +8378,7 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B224" s="1">
         <v>34200</v>
@@ -8413,7 +8413,7 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B225" s="1">
         <v>34200</v>
@@ -8448,7 +8448,7 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B226" s="1">
         <v>34200</v>
@@ -8483,7 +8483,7 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B227" s="1">
         <v>34200</v>
@@ -8518,7 +8518,7 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B228" s="1">
         <v>34200</v>
@@ -8553,7 +8553,7 @@
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B229" s="1">
         <v>34200</v>
@@ -8588,7 +8588,7 @@
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B230" s="1">
         <v>34200</v>
@@ -8623,7 +8623,7 @@
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B231" s="1">
         <v>34200</v>
@@ -8658,7 +8658,7 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B232" s="1">
         <v>34200</v>
@@ -9358,7 +9358,7 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B252" s="1">
         <v>34208</v>
@@ -9393,7 +9393,7 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B253" s="1">
         <v>34208</v>
@@ -9428,7 +9428,7 @@
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B254" s="1">
         <v>34208</v>
@@ -9463,7 +9463,7 @@
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B255" s="1">
         <v>34208</v>
@@ -9498,7 +9498,7 @@
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B256" s="1">
         <v>34208</v>
@@ -9533,7 +9533,7 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B257" s="1">
         <v>34208</v>
@@ -9568,7 +9568,7 @@
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B258" s="1">
         <v>34208</v>
@@ -9597,7 +9597,7 @@
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B259" s="1">
         <v>34208</v>
@@ -10186,7 +10186,7 @@
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B276" s="1">
         <v>34227</v>
@@ -10221,7 +10221,7 @@
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B277" s="1">
         <v>34227</v>
@@ -10256,7 +10256,7 @@
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B278" s="1">
         <v>34227</v>
@@ -10291,7 +10291,7 @@
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B279" s="1">
         <v>34227</v>
@@ -10326,7 +10326,7 @@
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B280" s="1">
         <v>34227</v>
@@ -10361,7 +10361,7 @@
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B281" s="1">
         <v>34227</v>
@@ -11061,7 +11061,7 @@
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B301" s="1">
         <v>34256</v>
@@ -11096,7 +11096,7 @@
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B302" s="1">
         <v>34256</v>
@@ -11131,7 +11131,7 @@
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B303" s="1">
         <v>34256</v>
@@ -11166,7 +11166,7 @@
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B304" s="1">
         <v>34256</v>
@@ -11201,7 +11201,7 @@
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B305" s="1">
         <v>34256</v>
@@ -11236,7 +11236,7 @@
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B306" s="1">
         <v>34256</v>
@@ -11376,7 +11376,7 @@
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B310" s="1">
         <v>34464</v>
@@ -11411,7 +11411,7 @@
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B311" s="1">
         <v>34464</v>
@@ -11446,7 +11446,7 @@
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B312" s="1">
         <v>34464</v>
@@ -11481,7 +11481,7 @@
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B313" s="1">
         <v>34464</v>
@@ -11516,7 +11516,7 @@
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B314" s="1">
         <v>34464</v>
@@ -11551,7 +11551,7 @@
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B315" s="1">
         <v>34464</v>
@@ -11586,7 +11586,7 @@
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B316" s="1">
         <v>34464</v>
@@ -12321,7 +12321,7 @@
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B337" s="1">
         <v>34465</v>
@@ -12356,7 +12356,7 @@
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B338" s="1">
         <v>34465</v>
@@ -12391,7 +12391,7 @@
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B339" s="1">
         <v>34465</v>
@@ -12636,7 +12636,7 @@
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B346" s="1">
         <v>34478</v>
@@ -12671,7 +12671,7 @@
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B347" s="1">
         <v>34478</v>
@@ -12706,7 +12706,7 @@
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B348" s="1">
         <v>34478</v>
@@ -12741,7 +12741,7 @@
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B349" s="1">
         <v>34478</v>
@@ -13301,7 +13301,7 @@
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B365" s="1">
         <v>34479</v>
@@ -13336,7 +13336,7 @@
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B366" s="1">
         <v>34479</v>
@@ -13546,7 +13546,7 @@
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B372" s="1">
         <v>34492</v>
@@ -13581,7 +13581,7 @@
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B373" s="1">
         <v>34492</v>
@@ -13616,7 +13616,7 @@
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B374" s="1">
         <v>34492</v>
@@ -14491,7 +14491,7 @@
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B399" s="1">
         <v>34506</v>
@@ -14526,7 +14526,7 @@
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B400" s="1">
         <v>34506</v>
@@ -14561,7 +14561,7 @@
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B401" s="1">
         <v>34506</v>
@@ -14596,7 +14596,7 @@
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B402" s="1">
         <v>34506</v>
@@ -14631,7 +14631,7 @@
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B403" s="1">
         <v>34506</v>
@@ -14666,7 +14666,7 @@
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B404" s="1">
         <v>34506</v>
@@ -14701,7 +14701,7 @@
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B405" s="1">
         <v>34506</v>
@@ -14736,7 +14736,7 @@
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B406" s="1">
         <v>34506</v>
@@ -14771,7 +14771,7 @@
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B407" s="1">
         <v>34506</v>
@@ -15751,7 +15751,7 @@
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B435" s="1">
         <v>34520</v>
@@ -15786,7 +15786,7 @@
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B436" s="1">
         <v>34520</v>
@@ -15821,7 +15821,7 @@
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B437" s="1">
         <v>34520</v>
@@ -15856,7 +15856,7 @@
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B438" s="1">
         <v>34520</v>
@@ -15891,7 +15891,7 @@
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B439" s="1">
         <v>34520</v>
@@ -15926,7 +15926,7 @@
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B440" s="1">
         <v>34520</v>
@@ -16766,7 +16766,7 @@
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B464" s="1">
         <v>34521</v>
@@ -16801,7 +16801,7 @@
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B465" s="1">
         <v>34521</v>
@@ -16836,7 +16836,7 @@
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B466" s="1">
         <v>34521</v>
@@ -17247,7 +17247,7 @@
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B478" s="1">
         <v>34534</v>
@@ -17282,7 +17282,7 @@
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B479" s="1">
         <v>34534</v>
@@ -17317,7 +17317,7 @@
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B480" s="1">
         <v>34534</v>
@@ -17352,7 +17352,7 @@
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B481" s="1">
         <v>34534</v>
@@ -17387,7 +17387,7 @@
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B482" s="1">
         <v>34534</v>
@@ -17422,7 +17422,7 @@
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B483" s="1">
         <v>34534</v>
@@ -17457,7 +17457,7 @@
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B484" s="1">
         <v>34534</v>
@@ -17492,7 +17492,7 @@
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B485" s="1">
         <v>34534</v>
@@ -18087,7 +18087,7 @@
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B502" s="1">
         <v>34535</v>
@@ -18122,7 +18122,7 @@
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B503" s="1">
         <v>34535</v>
@@ -18157,7 +18157,7 @@
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B504" s="1">
         <v>34535</v>
@@ -18647,7 +18647,7 @@
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B518" s="1">
         <v>34555</v>
@@ -18682,7 +18682,7 @@
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B519" s="1">
         <v>34555</v>
@@ -18717,7 +18717,7 @@
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B520" s="1">
         <v>34555</v>
@@ -18752,7 +18752,7 @@
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B521" s="1">
         <v>34555</v>
@@ -18787,7 +18787,7 @@
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B522" s="1">
         <v>34555</v>
@@ -18822,7 +18822,7 @@
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B523" s="1">
         <v>34555</v>
@@ -18857,7 +18857,7 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B524" s="1">
         <v>34555</v>
@@ -18892,7 +18892,7 @@
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B525" s="1">
         <v>34555</v>
@@ -18927,7 +18927,7 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B526" s="1">
         <v>34555</v>
@@ -19907,7 +19907,7 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B554" s="1">
         <v>34569</v>
@@ -19942,7 +19942,7 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B555" s="1">
         <v>34569</v>
@@ -19977,7 +19977,7 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B556" s="1">
         <v>34569</v>
@@ -20012,7 +20012,7 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B557" s="1">
         <v>34569</v>
@@ -20047,7 +20047,7 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B558" s="1">
         <v>34569</v>
@@ -20082,7 +20082,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B559" s="1">
         <v>34569</v>
@@ -20117,7 +20117,7 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B560" s="1">
         <v>34569</v>
@@ -20152,7 +20152,7 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B561" s="1">
         <v>34569</v>
@@ -20181,7 +20181,7 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B562" s="1">
         <v>34569</v>
@@ -21015,7 +21015,7 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B586" s="1">
         <v>34590</v>
@@ -21050,7 +21050,7 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B587" s="1">
         <v>34590</v>
@@ -21085,7 +21085,7 @@
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B588" s="1">
         <v>34590</v>
@@ -21120,7 +21120,7 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B589" s="1">
         <v>34590</v>
@@ -21155,7 +21155,7 @@
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B590" s="1">
         <v>34590</v>
@@ -21540,7 +21540,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B601" s="1">
         <v>34591</v>
@@ -21575,7 +21575,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B602" s="1">
         <v>34591</v>
@@ -21960,7 +21960,7 @@
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B613" s="1">
         <v>34618</v>
@@ -21995,7 +21995,7 @@
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B614" s="1">
         <v>34618</v>
@@ -22030,7 +22030,7 @@
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B615" s="1">
         <v>34618</v>
@@ -22415,7 +22415,7 @@
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B626" s="1">
         <v>34619</v>
@@ -22450,7 +22450,7 @@
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B627" s="1">
         <v>34619</v>
@@ -22485,7 +22485,7 @@
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B628" s="1">
         <v>34619</v>
@@ -22520,7 +22520,7 @@
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B629" s="1">
         <v>34619</v>
@@ -22555,7 +22555,7 @@
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B630" s="1">
         <v>34619</v>
@@ -22590,7 +22590,7 @@
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B631" s="1">
         <v>34619</v>
@@ -22940,7 +22940,7 @@
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B641" s="1">
         <v>34849</v>
@@ -22975,7 +22975,7 @@
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B642" s="1">
         <v>34849</v>
@@ -23185,7 +23185,7 @@
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B648" s="1">
         <v>34850</v>
@@ -23220,7 +23220,7 @@
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B649" s="1">
         <v>34850</v>
@@ -23815,7 +23815,7 @@
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B666" s="1">
         <v>34870</v>
@@ -23850,7 +23850,7 @@
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B667" s="1">
         <v>34870</v>
@@ -23885,7 +23885,7 @@
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B668" s="1">
         <v>34870</v>
@@ -23920,7 +23920,7 @@
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B669" s="1">
         <v>34870</v>
@@ -23955,7 +23955,7 @@
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B670" s="1">
         <v>34870</v>
@@ -23990,7 +23990,7 @@
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B671" s="1">
         <v>34870</v>
@@ -24585,7 +24585,7 @@
     </row>
     <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B688" s="1">
         <v>34892</v>
@@ -24620,7 +24620,7 @@
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B689" s="1">
         <v>34892</v>
@@ -24655,7 +24655,7 @@
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B690" s="1">
         <v>34892</v>
@@ -24690,7 +24690,7 @@
     </row>
     <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B691" s="1">
         <v>34892</v>
@@ -24725,7 +24725,7 @@
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B692" s="1">
         <v>34892</v>
@@ -25075,7 +25075,7 @@
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B702" s="1">
         <v>34905</v>
@@ -25110,7 +25110,7 @@
     </row>
     <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B703" s="1">
         <v>34905</v>
@@ -25145,7 +25145,7 @@
     </row>
     <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B704" s="1">
         <v>34905</v>
@@ -25180,7 +25180,7 @@
     </row>
     <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B705" s="1">
         <v>34905</v>
@@ -25215,7 +25215,7 @@
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B706" s="1">
         <v>34905</v>
@@ -25250,7 +25250,7 @@
     </row>
     <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B707" s="1">
         <v>34905</v>
@@ -25594,7 +25594,7 @@
     </row>
     <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B717" s="1">
         <v>34925</v>
@@ -25629,7 +25629,7 @@
     </row>
     <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B718" s="1">
         <v>34925</v>
@@ -25664,7 +25664,7 @@
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B719" s="1">
         <v>34925</v>
@@ -25699,7 +25699,7 @@
     </row>
     <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B720" s="1">
         <v>34925</v>
@@ -25734,7 +25734,7 @@
     </row>
     <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B721" s="1">
         <v>34925</v>
@@ -26119,7 +26119,7 @@
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B732" s="1">
         <v>34939</v>
@@ -26154,7 +26154,7 @@
     </row>
     <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B733" s="1">
         <v>34939</v>
@@ -26189,7 +26189,7 @@
     </row>
     <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B734" s="1">
         <v>34939</v>
@@ -26224,7 +26224,7 @@
     </row>
     <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B735" s="1">
         <v>34939</v>
@@ -26259,7 +26259,7 @@
     </row>
     <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B736" s="1">
         <v>34939</v>
@@ -26294,7 +26294,7 @@
     </row>
     <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B737" s="1">
         <v>34939</v>
@@ -26609,7 +26609,7 @@
     </row>
     <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B746" s="1">
         <v>34954</v>
@@ -26644,7 +26644,7 @@
     </row>
     <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B747" s="1">
         <v>34954</v>
@@ -26679,7 +26679,7 @@
     </row>
     <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B748" s="1">
         <v>34954</v>
@@ -26714,7 +26714,7 @@
     </row>
     <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B749" s="1">
         <v>34954</v>
@@ -26749,7 +26749,7 @@
     </row>
     <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B750" s="1">
         <v>34954</v>
@@ -26784,7 +26784,7 @@
     </row>
     <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B751" s="1">
         <v>34954</v>
@@ -27099,7 +27099,7 @@
     </row>
     <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B760" s="1">
         <v>34989</v>
@@ -27134,7 +27134,7 @@
     </row>
     <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B761" s="1">
         <v>34989</v>
@@ -27169,7 +27169,7 @@
     </row>
     <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B762" s="1">
         <v>34989</v>
@@ -27204,7 +27204,7 @@
     </row>
     <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B763" s="1">
         <v>34989</v>
@@ -27239,7 +27239,7 @@
     </row>
     <row r="764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B764" s="1">
         <v>34989</v>
@@ -27274,7 +27274,7 @@
     </row>
     <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B765" s="1">
         <v>34989</v>
@@ -28149,7 +28149,7 @@
     </row>
     <row r="790" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B790" s="1">
         <v>35194</v>
@@ -28184,7 +28184,7 @@
     </row>
     <row r="791" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B791" s="1">
         <v>35194</v>
@@ -28219,7 +28219,7 @@
     </row>
     <row r="792" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B792" s="1">
         <v>35194</v>
@@ -28254,7 +28254,7 @@
     </row>
     <row r="793" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B793" s="1">
         <v>35194</v>
@@ -28569,7 +28569,7 @@
     </row>
     <row r="802" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B802" s="1">
         <v>35226</v>
@@ -28604,7 +28604,7 @@
     </row>
     <row r="803" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B803" s="1">
         <v>35226</v>
@@ -28639,7 +28639,7 @@
     </row>
     <row r="804" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B804" s="1">
         <v>35226</v>
@@ -28674,7 +28674,7 @@
     </row>
     <row r="805" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B805" s="1">
         <v>35226</v>
@@ -29304,7 +29304,7 @@
     </row>
     <row r="823" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B823" s="1">
         <v>35227</v>
@@ -29689,7 +29689,7 @@
     </row>
     <row r="834" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B834" s="1">
         <v>35255</v>
@@ -29724,7 +29724,7 @@
     </row>
     <row r="835" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B835" s="1">
         <v>35255</v>
@@ -29759,7 +29759,7 @@
     </row>
     <row r="836" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B836" s="1">
         <v>35255</v>
@@ -29794,7 +29794,7 @@
     </row>
     <row r="837" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B837" s="1">
         <v>35255</v>
@@ -30319,7 +30319,7 @@
     </row>
     <row r="852" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B852" s="1">
         <v>35256</v>
@@ -30354,7 +30354,7 @@
     </row>
     <row r="853" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B853" s="1">
         <v>35256</v>
@@ -30739,7 +30739,7 @@
     </row>
     <row r="864" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B864" s="1">
         <v>35290</v>
@@ -30774,7 +30774,7 @@
     </row>
     <row r="865" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B865" s="1">
         <v>35290</v>
@@ -30809,7 +30809,7 @@
     </row>
     <row r="866" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B866" s="1">
         <v>35290</v>
@@ -30844,7 +30844,7 @@
     </row>
     <row r="867" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B867" s="1">
         <v>35290</v>
@@ -30879,7 +30879,7 @@
     </row>
     <row r="868" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B868" s="1">
         <v>35290</v>
@@ -30914,7 +30914,7 @@
     </row>
     <row r="869" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B869" s="1">
         <v>35290</v>
@@ -30949,7 +30949,7 @@
     </row>
     <row r="870" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B870" s="1">
         <v>35290</v>
@@ -30984,7 +30984,7 @@
     </row>
     <row r="871" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B871" s="1">
         <v>35290</v>
@@ -31894,7 +31894,7 @@
     </row>
     <row r="897" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B897" s="1">
         <v>35326</v>
@@ -31929,7 +31929,7 @@
     </row>
     <row r="898" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B898" s="1">
         <v>35326</v>
@@ -31964,7 +31964,7 @@
     </row>
     <row r="899" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B899" s="1">
         <v>35326</v>
@@ -31999,7 +31999,7 @@
     </row>
     <row r="900" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B900" s="1">
         <v>35326</v>
@@ -32034,7 +32034,7 @@
     </row>
     <row r="901" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B901" s="1">
         <v>35326</v>
@@ -32069,7 +32069,7 @@
     </row>
     <row r="902" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B902" s="1">
         <v>35326</v>
@@ -32944,7 +32944,7 @@
     </row>
     <row r="927" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B927" s="1">
         <v>35353</v>
@@ -32979,7 +32979,7 @@
     </row>
     <row r="928" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B928" s="1">
         <v>35353</v>
@@ -33014,7 +33014,7 @@
     </row>
     <row r="929" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B929" s="1">
         <v>35353</v>
@@ -33049,7 +33049,7 @@
     </row>
     <row r="930" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B930" s="1">
         <v>35353</v>
@@ -33084,7 +33084,7 @@
     </row>
     <row r="931" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B931" s="1">
         <v>35353</v>
@@ -33119,7 +33119,7 @@
     </row>
     <row r="932" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B932" s="1">
         <v>35353</v>
@@ -34169,7 +34169,7 @@
     </row>
     <row r="962" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B962" s="1">
         <v>35521</v>
@@ -34204,7 +34204,7 @@
     </row>
     <row r="963" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A963" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B963" s="1">
         <v>35521</v>
@@ -35009,7 +35009,7 @@
     </row>
     <row r="986" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A986" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B986" s="1">
         <v>35551</v>
@@ -35044,7 +35044,7 @@
     </row>
     <row r="987" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B987" s="1">
         <v>35551</v>
@@ -35849,7 +35849,7 @@
     </row>
     <row r="1010" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1010" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1010" s="1">
         <v>35582</v>
@@ -35884,7 +35884,7 @@
     </row>
     <row r="1011" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1011" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1011" s="1">
         <v>35582</v>
@@ -36689,7 +36689,7 @@
     </row>
     <row r="1034" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1034" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1034" s="1">
         <v>35612</v>
@@ -36724,7 +36724,7 @@
     </row>
     <row r="1035" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1035" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1035" s="1">
         <v>35612</v>
@@ -37529,7 +37529,7 @@
     </row>
     <row r="1058" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1058" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1058" s="1">
         <v>35643</v>
@@ -37564,7 +37564,7 @@
     </row>
     <row r="1059" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1059" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1059" s="1">
         <v>35643</v>
@@ -38334,7 +38334,7 @@
     </row>
     <row r="1081" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1081" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1081" s="1">
         <v>35674</v>
@@ -38369,7 +38369,7 @@
     </row>
     <row r="1082" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1082" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1082" s="1">
         <v>35674</v>
@@ -39069,7 +39069,7 @@
     </row>
     <row r="1102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1102" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1102" s="1">
         <v>35704</v>
@@ -39104,7 +39104,7 @@
     </row>
     <row r="1103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1103" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1103" s="1">
         <v>35704</v>
